--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA2788C-89E5-4E3C-BFFC-A13D315B9716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB14C7-59F1-437D-95D9-F7D3DA036727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>objectype</t>
   </si>
   <si>
-    <t>Test Runs</t>
+    <t>Test Steps</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB14C7-59F1-437D-95D9-F7D3DA036727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7790003B-B22A-40AA-8DA9-6D14F93C6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -39,10 +39,22 @@
     <t>Text Box</t>
   </si>
   <si>
-    <t>objectype</t>
-  </si>
-  <si>
     <t>Test Steps</t>
+  </si>
+  <si>
+    <t>objectype1</t>
+  </si>
+  <si>
+    <t>objectype2</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>editrow</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -360,15 +372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,10 +391,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -387,7 +408,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7790003B-B22A-40AA-8DA9-6D14F93C6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910A0B8B-B8F3-4736-9843-15BAFCC1A422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>editvalue</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>deleterow</t>
   </si>
 </sst>
 </file>
@@ -372,18 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +410,14 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -414,6 +431,12 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910A0B8B-B8F3-4736-9843-15BAFCC1A422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7AF83E-25E1-435A-B6D2-F5529649C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>deleterow</t>
+  </si>
+  <si>
+    <t>manobject</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -394,7 +397,7 @@
     <col min="7" max="7" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +419,11 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -438,6 +444,9 @@
       </c>
       <c r="G2" t="s">
         <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7AF83E-25E1-435A-B6D2-F5529649C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F953E8B-D091-4567-B802-5BEC89148D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>manobject</t>
+  </si>
+  <si>
+    <t>manobject1</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,9 +398,11 @@
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +427,11 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,6 +454,9 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F953E8B-D091-4567-B802-5BEC89148D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F977EA0-D1C8-4097-97B1-68330B21B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F977EA0-D1C8-4097-97B1-68330B21B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09713E09-25A6-4C82-AFD2-75950A5A7F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
+    <sheet name="Demo1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>manobject1</t>
+  </si>
+  <si>
+    <t>Desciption</t>
   </si>
 </sst>
 </file>
@@ -389,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,4 +467,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09713E09-25A6-4C82-AFD2-75950A5A7F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF2B3D-EECF-4064-A9AB-80CF4B82D0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Desciption</t>
+  </si>
+  <si>
+    <t>defaultvalue</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,14 +488,20 @@
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF2B3D-EECF-4064-A9AB-80CF4B82D0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E6795F-01CA-4181-BA02-BF5BD26CB898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Field Data Type</t>
   </si>
 </sst>
 </file>
@@ -477,31 +483,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E6795F-01CA-4181-BA02-BF5BD26CB898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AB18F4-7D25-42D3-9599-AB9369C42820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>manobject1</t>
   </si>
   <si>
-    <t>Desciption</t>
-  </si>
-  <si>
     <t>defaultvalue</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Field Data Type</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,21 +502,21 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AB18F4-7D25-42D3-9599-AB9369C42820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED615B3-CE72-4238-AEEB-6E9112736DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
     <sheet name="Demo1" sheetId="3" r:id="rId2"/>
+    <sheet name="tc002" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -86,6 +87,24 @@
   </si>
   <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>textBox</t>
+  </si>
+  <si>
+    <t>objType1</t>
+  </si>
+  <si>
+    <t>objType2</t>
+  </si>
+  <si>
+    <t>Req</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
   </si>
 </sst>
 </file>
@@ -121,8 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -528,4 +550,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CF4F0-0715-4424-A70F-25AC2557DEA6}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED615B3-CE72-4238-AEEB-6E9112736DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63A732-9A9F-4F60-AC6B-9B2A7E04C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
     <sheet name="Demo1" sheetId="3" r:id="rId2"/>
     <sheet name="tc002" sheetId="4" r:id="rId3"/>
+    <sheet name="tc009" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>Test Cases</t>
+  </si>
+  <si>
+    <t>fieldname</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -556,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CF4F0-0715-4424-A70F-25AC2557DEA6}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -599,4 +606,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67621A-69E9-473D-A7D8-F9F0F26841F1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63A732-9A9F-4F60-AC6B-9B2A7E04C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBB49D-5479-4822-8DC8-76162D09C26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
     <sheet name="Demo1" sheetId="3" r:id="rId2"/>
     <sheet name="tc002" sheetId="4" r:id="rId3"/>
     <sheet name="tc009" sheetId="5" r:id="rId4"/>
+    <sheet name="tc010" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Desciption</t>
+  </si>
+  <si>
+    <t>def_value</t>
   </si>
 </sst>
 </file>
@@ -612,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67621A-69E9-473D-A7D8-F9F0F26841F1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -637,4 +644,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D184584D-C2B7-4D5A-94FF-4E7A2C882677}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBB49D-5479-4822-8DC8-76162D09C26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539D81A3-0C06-41B0-B20C-67CC2AA37058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Demo1" sheetId="3" r:id="rId2"/>
     <sheet name="tc002" sheetId="4" r:id="rId3"/>
     <sheet name="tc009" sheetId="5" r:id="rId4"/>
-    <sheet name="tc010" sheetId="6" r:id="rId5"/>
+    <sheet name="tc015" sheetId="7" r:id="rId5"/>
+    <sheet name="tc010" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -571,7 +572,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +621,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,11 +648,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6FA71A-D614-466B-ADB3-DCEDCE87ED4A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D184584D-C2B7-4D5A-94FF-4E7A2C882677}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539D81A3-0C06-41B0-B20C-67CC2AA37058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672645E2-E6EF-4507-90FD-B025E5451F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="tc002" sheetId="4" r:id="rId3"/>
     <sheet name="tc009" sheetId="5" r:id="rId4"/>
     <sheet name="tc015" sheetId="7" r:id="rId5"/>
-    <sheet name="tc010" sheetId="6" r:id="rId6"/>
+    <sheet name="tc016" sheetId="8" r:id="rId6"/>
+    <sheet name="tc010" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -651,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6FA71A-D614-466B-ADB3-DCEDCE87ED4A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,11 +680,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B50D4-23AC-45FA-9C3E-A69469D94C96}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D184584D-C2B7-4D5A-94FF-4E7A2C882677}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -1,96 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBB49D-5479-4822-8DC8-76162D09C26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
     <sheet name="Demo1" sheetId="3" r:id="rId2"/>
     <sheet name="tc002" sheetId="4" r:id="rId3"/>
     <sheet name="tc009" sheetId="5" r:id="rId4"/>
-    <sheet name="tc010" sheetId="6" r:id="rId5"/>
+    <sheet name="tc010" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Fieldvalue</t>
   </si>
   <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>objectype1</t>
+  </si>
+  <si>
+    <t>objectype2</t>
+  </si>
+  <si>
+    <t>editrow</t>
+  </si>
+  <si>
+    <t>editvalue</t>
+  </si>
+  <si>
+    <t>deleterow</t>
+  </si>
+  <si>
+    <t>manobject</t>
+  </si>
+  <si>
+    <t>manobject1</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>datatype</t>
-  </si>
-  <si>
     <t>Text Box</t>
   </si>
   <si>
     <t>Test Steps</t>
   </si>
   <si>
-    <t>objectype1</t>
-  </si>
-  <si>
-    <t>objectype2</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
-    <t>editrow</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>editvalue</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>deleterow</t>
-  </si>
-  <si>
-    <t>manobject</t>
-  </si>
-  <si>
-    <t>manobject1</t>
-  </si>
-  <si>
     <t>defaultvalue</t>
   </si>
   <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Field Data Type</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>testing</t>
   </si>
   <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Field Data Type</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>fieldName</t>
   </si>
   <si>
@@ -115,34 +117,367 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Desciption</t>
-  </si>
-  <si>
-    <t>def_value</t>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -150,9 +485,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -160,17 +737,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,7 +840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -254,7 +875,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -428,161 +1049,160 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="10.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="13.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="10.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="14.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CF4F0-0715-4424-A70F-25AC2557DEA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="20" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -596,15 +1216,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="20.5" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -612,70 +1232,72 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67621A-69E9-473D-A7D8-F9F0F26841F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D184584D-C2B7-4D5A-94FF-4E7A2C882677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="$A3:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -1,96 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBB49D-5479-4822-8DC8-76162D09C26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
     <sheet name="Demo1" sheetId="3" r:id="rId2"/>
-    <sheet name="tc002" sheetId="4" r:id="rId3"/>
-    <sheet name="tc009" sheetId="5" r:id="rId4"/>
-    <sheet name="tc010" sheetId="6" r:id="rId5"/>
+    <sheet name="tc005" sheetId="4" r:id="rId3"/>
+    <sheet name="tc006" sheetId="5" r:id="rId4"/>
+    <sheet name="tc011" sheetId="6" r:id="rId5"/>
+    <sheet name="tc012" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Fieldvalue</t>
   </si>
   <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>objectype1</t>
+  </si>
+  <si>
+    <t>objectype2</t>
+  </si>
+  <si>
+    <t>editrow</t>
+  </si>
+  <si>
+    <t>editvalue</t>
+  </si>
+  <si>
+    <t>deleterow</t>
+  </si>
+  <si>
+    <t>manobject</t>
+  </si>
+  <si>
+    <t>manobject1</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>datatype</t>
-  </si>
-  <si>
     <t>Text Box</t>
   </si>
   <si>
     <t>Test Steps</t>
   </si>
   <si>
-    <t>objectype1</t>
-  </si>
-  <si>
-    <t>objectype2</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
-    <t>editrow</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>editvalue</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>deleterow</t>
-  </si>
-  <si>
-    <t>manobject</t>
-  </si>
-  <si>
-    <t>manobject1</t>
-  </si>
-  <si>
     <t>defaultvalue</t>
   </si>
   <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Field Data Type</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>testing</t>
   </si>
   <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Field Data Type</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>fieldName</t>
   </si>
   <si>
@@ -103,46 +106,391 @@
     <t>objType2</t>
   </si>
   <si>
+    <t>fieldName2</t>
+  </si>
+  <si>
     <t>Req</t>
   </si>
   <si>
     <t>Test Cases</t>
   </si>
   <si>
-    <t>fieldname</t>
+    <t>rowName</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>fieldName1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fieldDataType </t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
     <t>Desciption</t>
-  </si>
-  <si>
-    <t>def_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -150,27 +498,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,7 +850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -254,7 +885,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -428,254 +1059,313 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="10.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="13.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="10.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="14.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CF4F0-0715-4424-A70F-25AC2557DEA6}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67621A-69E9-473D-A7D8-F9F0F26841F1}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="E2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D184584D-C2B7-4D5A-94FF-4E7A2C882677}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672645E2-E6EF-4507-90FD-B025E5451F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6800" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -18,81 +12,90 @@
     <sheet name="tc002" sheetId="4" r:id="rId3"/>
     <sheet name="tc009" sheetId="5" r:id="rId4"/>
     <sheet name="tc015" sheetId="7" r:id="rId5"/>
-    <sheet name="tc016" sheetId="8" r:id="rId6"/>
-    <sheet name="tc010" sheetId="6" r:id="rId7"/>
+    <sheet name="tc010" sheetId="6" r:id="rId6"/>
+    <sheet name="tc016" sheetId="8" r:id="rId7"/>
+    <sheet name="tc029" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Fieldvalue</t>
   </si>
   <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>objectype1</t>
+  </si>
+  <si>
+    <t>objectype2</t>
+  </si>
+  <si>
+    <t>editrow</t>
+  </si>
+  <si>
+    <t>editvalue</t>
+  </si>
+  <si>
+    <t>deleterow</t>
+  </si>
+  <si>
+    <t>manobject</t>
+  </si>
+  <si>
+    <t>manobject1</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>datatype</t>
-  </si>
-  <si>
     <t>Text Box</t>
   </si>
   <si>
     <t>Test Steps</t>
   </si>
   <si>
-    <t>objectype1</t>
-  </si>
-  <si>
-    <t>objectype2</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
-    <t>editrow</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>editvalue</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>deleterow</t>
-  </si>
-  <si>
-    <t>manobject</t>
-  </si>
-  <si>
-    <t>manobject1</t>
-  </si>
-  <si>
     <t>defaultvalue</t>
   </si>
   <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Field Data Type</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>testing</t>
   </si>
   <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Field Data Type</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>fieldName</t>
   </si>
   <si>
@@ -117,34 +120,389 @@
     <t>Category</t>
   </si>
   <si>
+    <t>def_value</t>
+  </si>
+  <si>
     <t>Desciption</t>
   </si>
   <si>
-    <t>def_value</t>
+    <t>fieldName1</t>
+  </si>
+  <si>
+    <t>fieldType</t>
+  </si>
+  <si>
+    <t>fieldName2</t>
+  </si>
+  <si>
+    <t>Delete_Custom_Field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,9 +510,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -162,17 +762,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -221,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -256,7 +900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,161 +1074,160 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="10.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="13.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="10.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="14.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CF4F0-0715-4424-A70F-25AC2557DEA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="20" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -598,15 +1241,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="20.5" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -614,132 +1257,183 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67621A-69E9-473D-A7D8-F9F0F26841F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6FA71A-D614-466B-ADB3-DCEDCE87ED4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B50D4-23AC-45FA-9C3E-A69469D94C96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.1818181818182" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D184584D-C2B7-4D5A-94FF-4E7A2C882677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBB49D-5479-4822-8DC8-76162D09C26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672645E2-E6EF-4507-90FD-B025E5451F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
     <sheet name="Demo1" sheetId="3" r:id="rId2"/>
     <sheet name="tc002" sheetId="4" r:id="rId3"/>
     <sheet name="tc009" sheetId="5" r:id="rId4"/>
-    <sheet name="tc010" sheetId="6" r:id="rId5"/>
+    <sheet name="tc015" sheetId="7" r:id="rId5"/>
+    <sheet name="tc016" sheetId="8" r:id="rId6"/>
+    <sheet name="tc010" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -571,7 +573,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +622,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,11 +649,73 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6FA71A-D614-466B-ADB3-DCEDCE87ED4A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B50D4-23AC-45FA-9C3E-A69469D94C96}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D184584D-C2B7-4D5A-94FF-4E7A2C882677}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672645E2-E6EF-4507-90FD-B025E5451F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF275E84-9285-43A4-98DC-6A638E79AADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="tc015" sheetId="7" r:id="rId5"/>
     <sheet name="tc016" sheetId="8" r:id="rId6"/>
     <sheet name="tc010" sheetId="6" r:id="rId7"/>
+    <sheet name="tc022" sheetId="9" r:id="rId8"/>
+    <sheet name="tc023" sheetId="10" r:id="rId9"/>
+    <sheet name="tc028" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -121,6 +124,15 @@
   </si>
   <si>
     <t>def_value</t>
+  </si>
+  <si>
+    <t>New Rq</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -519,6 +531,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D55113-FCD4-4302-ACCC-5A1231CFD9C3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
   <dimension ref="A1:D2"/>
@@ -683,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B50D4-23AC-45FA-9C3E-A69469D94C96}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -742,4 +785,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5098D96-EDBC-47E2-A3DC-EA160990E15F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0580A98-7D2C-4174-84B3-26733BA04D97}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF275E84-9285-43A4-98DC-6A638E79AADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF348F6-F823-4C3B-9692-5CFEBFDFFCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="tc022" sheetId="9" r:id="rId8"/>
     <sheet name="tc023" sheetId="10" r:id="rId9"/>
     <sheet name="tc028" sheetId="11" r:id="rId10"/>
+    <sheet name="tc036" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>Require</t>
   </si>
 </sst>
 </file>
@@ -535,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D55113-FCD4-4302-ACCC-5A1231CFD9C3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -555,6 +562,31 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23261926-8161-40DD-8CAC-6C9508BA9EC3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800" activeTab="7"/>
+    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,11 @@
     <sheet name="tc009" sheetId="5" r:id="rId4"/>
     <sheet name="tc015" sheetId="7" r:id="rId5"/>
     <sheet name="tc010" sheetId="6" r:id="rId6"/>
-    <sheet name="tc016" sheetId="8" r:id="rId7"/>
-    <sheet name="tc029" sheetId="9" r:id="rId8"/>
+    <sheet name="tc012" sheetId="10" r:id="rId7"/>
+    <sheet name="tc016" sheetId="8" r:id="rId8"/>
+    <sheet name="tc029" sheetId="9" r:id="rId9"/>
+    <sheet name="tc040" sheetId="11" r:id="rId10"/>
+    <sheet name="tc041" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -126,6 +129,12 @@
     <t>Desciption</t>
   </si>
   <si>
+    <t>rowName</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
     <t>fieldName1</t>
   </si>
   <si>
@@ -136,6 +145,12 @@
   </si>
   <si>
     <t>Delete_Custom_Field</t>
+  </si>
+  <si>
+    <t>TCtesting</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -148,14 +163,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,148 +619,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,6 +1167,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1366,10 +1446,37 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1396,13 +1503,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1412,24 +1519,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF348F6-F823-4C3B-9692-5CFEBFDFFCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F44AFBA-02A0-49C9-BD1D-4731F7214A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Require</t>
+  </si>
+  <si>
+    <t>numbs</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D55113-FCD4-4302-ACCC-5A1231CFD9C3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,7 +561,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -573,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23261926-8161-40DD-8CAC-6C9508BA9EC3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F44AFBA-02A0-49C9-BD1D-4731F7214A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC9E73-87DB-4CCE-B2B6-B3AC5ED3086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <sheet name="tc022" sheetId="9" r:id="rId8"/>
     <sheet name="tc023" sheetId="10" r:id="rId9"/>
     <sheet name="tc028" sheetId="11" r:id="rId10"/>
-    <sheet name="tc036" sheetId="12" r:id="rId11"/>
+    <sheet name="tc047" sheetId="13" r:id="rId11"/>
+    <sheet name="tc036" sheetId="12" r:id="rId12"/>
+    <sheet name="tc048" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -143,6 +145,18 @@
   </si>
   <si>
     <t>numbs</t>
+  </si>
+  <si>
+    <t>fieldvalue</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Default_value</t>
   </si>
 </sst>
 </file>
@@ -545,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D55113-FCD4-4302-ACCC-5A1231CFD9C3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -573,14 +587,54 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF7B8D1-CEB9-4367-8C7F-BA5944EAA01A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23261926-8161-40DD-8CAC-6C9508BA9EC3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -590,6 +644,31 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72931DCE-AA23-435B-8908-80915FA343BA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF348F6-F823-4C3B-9692-5CFEBFDFFCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -24,79 +18,93 @@
     <sheet name="tc023" sheetId="10" r:id="rId9"/>
     <sheet name="tc028" sheetId="11" r:id="rId10"/>
     <sheet name="tc036" sheetId="12" r:id="rId11"/>
+    <sheet name="tc046" sheetId="13" r:id="rId12"/>
+    <sheet name="tc005" sheetId="14" r:id="rId13"/>
+    <sheet name="tc011" sheetId="15" r:id="rId14"/>
+    <sheet name="tc012" sheetId="16" r:id="rId15"/>
+    <sheet name="tc027" sheetId="17" r:id="rId16"/>
+    <sheet name="tc029" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Fieldvalue</t>
   </si>
   <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>objectype1</t>
+  </si>
+  <si>
+    <t>objectype2</t>
+  </si>
+  <si>
+    <t>editrow</t>
+  </si>
+  <si>
+    <t>editvalue</t>
+  </si>
+  <si>
+    <t>deleterow</t>
+  </si>
+  <si>
+    <t>manobject</t>
+  </si>
+  <si>
+    <t>manobject1</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>datatype</t>
-  </si>
-  <si>
     <t>Text Box</t>
   </si>
   <si>
     <t>Test Steps</t>
   </si>
   <si>
-    <t>objectype1</t>
-  </si>
-  <si>
-    <t>objectype2</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
-    <t>editrow</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>editvalue</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>deleterow</t>
-  </si>
-  <si>
-    <t>manobject</t>
-  </si>
-  <si>
-    <t>manobject1</t>
-  </si>
-  <si>
     <t>defaultvalue</t>
   </si>
   <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Field Data Type</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>testing</t>
   </si>
   <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Field Data Type</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>fieldName</t>
   </si>
   <si>
@@ -121,49 +129,438 @@
     <t>Category</t>
   </si>
   <si>
+    <t>def_value</t>
+  </si>
+  <si>
     <t>Desciption</t>
   </si>
   <si>
-    <t>def_value</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
   <si>
     <t>New Rq</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>checkbox</t>
   </si>
   <si>
     <t>Require</t>
   </si>
+  <si>
+    <t>Default_value</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>fieldName2</t>
+  </si>
+  <si>
+    <t>Delete_field</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Defects</t>
+  </si>
+  <si>
+    <t>fieldName1</t>
+  </si>
+  <si>
+    <t>fieldType</t>
+  </si>
+  <si>
+    <t>Delete_module</t>
+  </si>
+  <si>
+    <t>rowName</t>
+  </si>
+  <si>
+    <t>Checkbox_test</t>
+  </si>
+  <si>
+    <t>fieldtype</t>
+  </si>
+  <si>
+    <t>Create_Custom_Field</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -171,27 +568,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -240,7 +927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -275,7 +962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -449,443 +1136,684 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8021E44-B385-40A5-B8D4-B11F83401465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="10.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="13.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D55113-FCD4-4302-ACCC-5A1231CFD9C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23261926-8161-40DD-8CAC-6C9508BA9EC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="23" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893CB98F-CAE6-4140-81F6-9A9E84844E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="10.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="14.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7CF4F0-0715-4424-A70F-25AC2557DEA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="20.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67621A-69E9-473D-A7D8-F9F0F26841F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6FA71A-D614-466B-ADB3-DCEDCE87ED4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B50D4-23AC-45FA-9C3E-A69469D94C96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D184584D-C2B7-4D5A-94FF-4E7A2C882677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5098D96-EDBC-47E2-A3DC-EA160990E15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0580A98-7D2C-4174-84B3-26733BA04D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -1,29 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Demo" r:id="rId3" sheetId="1"/>
-    <sheet name="Demo1" r:id="rId4" sheetId="2"/>
-    <sheet name="tc002" r:id="rId5" sheetId="3"/>
-    <sheet name="tc009" r:id="rId6" sheetId="4"/>
-    <sheet name="tc015" r:id="rId7" sheetId="5"/>
-    <sheet name="tc010" r:id="rId8" sheetId="6"/>
-    <sheet name="tc016" r:id="rId9" sheetId="7"/>
-    <sheet name="tc029" r:id="rId10" sheetId="8"/>
-    <sheet name="tc054" r:id="rId11" sheetId="9"/>
+    <sheet name="Demo" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo1" sheetId="2" r:id="rId2"/>
+    <sheet name="tc002" sheetId="3" r:id="rId3"/>
+    <sheet name="tc009" sheetId="4" r:id="rId4"/>
+    <sheet name="tc015" sheetId="5" r:id="rId5"/>
+    <sheet name="tc010" sheetId="6" r:id="rId6"/>
+    <sheet name="tc016" sheetId="7" r:id="rId7"/>
+    <sheet name="tc029" sheetId="8" r:id="rId8"/>
+    <sheet name="tc054" sheetId="9" r:id="rId9"/>
+    <sheet name="tc005" sheetId="10" r:id="rId10"/>
+    <sheet name="tc006" sheetId="11" r:id="rId11"/>
+    <sheet name="tc041" sheetId="12" r:id="rId12"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -131,31 +146,397 @@
   </si>
   <si>
     <t>Default_value</t>
+  </si>
+  <si>
+    <t>Delete_field</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Defects</t>
+  </si>
+  <si>
+    <t>rowName</t>
+  </si>
+  <si>
+    <t>Click_checkbox</t>
+  </si>
+  <si>
+    <t>Delete_module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <sz val="11.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,339 +544,1265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s" s="0">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="0">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>13</v>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s" s="0">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="0">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s" s="0">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="0">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>10</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s" s="0">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>34</v>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -15,12 +15,13 @@
     <sheet name="tc016" r:id="rId9" sheetId="7"/>
     <sheet name="tc029" r:id="rId10" sheetId="8"/>
     <sheet name="tc054" r:id="rId11" sheetId="9"/>
+    <sheet name="tc060" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -244,6 +245,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -3,50 +3,51 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6B8875-C515-4EC7-9297-D0C7C81B3475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32FDB509-1876-45BF-8E1E-833B69CA6C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="26" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="3" r:id="rId1"/>
     <sheet name="tc003" sheetId="4" r:id="rId2"/>
     <sheet name="tc004" sheetId="5" r:id="rId3"/>
     <sheet name="tc005" sheetId="27" r:id="rId4"/>
-    <sheet name="tc009" sheetId="2" r:id="rId5"/>
-    <sheet name="tc010" sheetId="9" r:id="rId6"/>
-    <sheet name="tc011" sheetId="28" r:id="rId7"/>
-    <sheet name="tc012" sheetId="29" r:id="rId8"/>
-    <sheet name="tc015" sheetId="6" r:id="rId9"/>
-    <sheet name="tc016" sheetId="7" r:id="rId10"/>
-    <sheet name="tc017" sheetId="10" r:id="rId11"/>
-    <sheet name="tc018" sheetId="8" r:id="rId12"/>
-    <sheet name="tc021" sheetId="38" r:id="rId13"/>
-    <sheet name="tc022" sheetId="11" r:id="rId14"/>
-    <sheet name="tc023" sheetId="12" r:id="rId15"/>
-    <sheet name="tc024" sheetId="14" r:id="rId16"/>
-    <sheet name="tc027" sheetId="30" r:id="rId17"/>
-    <sheet name="tc028" sheetId="13" r:id="rId18"/>
-    <sheet name="tc029" sheetId="31" r:id="rId19"/>
-    <sheet name="tc030" sheetId="16" r:id="rId20"/>
-    <sheet name="tc033" sheetId="18" r:id="rId21"/>
-    <sheet name="tc034" sheetId="39" r:id="rId22"/>
-    <sheet name="tc035" sheetId="37" r:id="rId23"/>
-    <sheet name="tc036" sheetId="19" r:id="rId24"/>
-    <sheet name="tc039" sheetId="17" r:id="rId25"/>
-    <sheet name="tc041" sheetId="36" r:id="rId26"/>
-    <sheet name="tc042" sheetId="32" r:id="rId27"/>
-    <sheet name="tc045" sheetId="22" r:id="rId28"/>
-    <sheet name="tc046" sheetId="24" r:id="rId29"/>
-    <sheet name="tc047" sheetId="25" r:id="rId30"/>
-    <sheet name="tc048" sheetId="26" r:id="rId31"/>
-    <sheet name="tc049" sheetId="20" r:id="rId32"/>
-    <sheet name="tc050" sheetId="21" r:id="rId33"/>
-    <sheet name="tc051" sheetId="23" r:id="rId34"/>
-    <sheet name="tc054" sheetId="40" r:id="rId35"/>
-    <sheet name="tc057" sheetId="34" r:id="rId36"/>
-    <sheet name="tc058" sheetId="35" r:id="rId37"/>
-    <sheet name="tc059" sheetId="33" r:id="rId38"/>
-    <sheet name="tc060" sheetId="41" r:id="rId39"/>
+    <sheet name="tc006" sheetId="42" r:id="rId5"/>
+    <sheet name="tc009" sheetId="2" r:id="rId6"/>
+    <sheet name="tc010" sheetId="9" r:id="rId7"/>
+    <sheet name="tc011" sheetId="28" r:id="rId8"/>
+    <sheet name="tc012" sheetId="29" r:id="rId9"/>
+    <sheet name="tc015" sheetId="6" r:id="rId10"/>
+    <sheet name="tc016" sheetId="7" r:id="rId11"/>
+    <sheet name="tc017" sheetId="10" r:id="rId12"/>
+    <sheet name="tc018" sheetId="8" r:id="rId13"/>
+    <sheet name="tc021" sheetId="38" r:id="rId14"/>
+    <sheet name="tc022" sheetId="11" r:id="rId15"/>
+    <sheet name="tc023" sheetId="12" r:id="rId16"/>
+    <sheet name="tc024" sheetId="14" r:id="rId17"/>
+    <sheet name="tc027" sheetId="30" r:id="rId18"/>
+    <sheet name="tc028" sheetId="13" r:id="rId19"/>
+    <sheet name="tc029" sheetId="31" r:id="rId20"/>
+    <sheet name="tc030" sheetId="16" r:id="rId21"/>
+    <sheet name="tc033" sheetId="18" r:id="rId22"/>
+    <sheet name="tc034" sheetId="39" r:id="rId23"/>
+    <sheet name="tc035" sheetId="37" r:id="rId24"/>
+    <sheet name="tc036" sheetId="19" r:id="rId25"/>
+    <sheet name="tc039" sheetId="17" r:id="rId26"/>
+    <sheet name="tc041" sheetId="36" r:id="rId27"/>
+    <sheet name="tc042" sheetId="32" r:id="rId28"/>
+    <sheet name="tc045" sheetId="22" r:id="rId29"/>
+    <sheet name="tc046" sheetId="24" r:id="rId30"/>
+    <sheet name="tc047" sheetId="25" r:id="rId31"/>
+    <sheet name="tc048" sheetId="26" r:id="rId32"/>
+    <sheet name="tc049" sheetId="20" r:id="rId33"/>
+    <sheet name="tc050" sheetId="21" r:id="rId34"/>
+    <sheet name="tc051" sheetId="23" r:id="rId35"/>
+    <sheet name="tc054" sheetId="40" r:id="rId36"/>
+    <sheet name="tc057" sheetId="34" r:id="rId37"/>
+    <sheet name="tc058" sheetId="35" r:id="rId38"/>
+    <sheet name="tc059" sheetId="33" r:id="rId39"/>
+    <sheet name="tc060" sheetId="41" r:id="rId40"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>fieldName</t>
   </si>
@@ -125,6 +126,13 @@
     <t>Defects</t>
   </si>
   <si>
+    <t>rowName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Click_checkbox</t>
+  </si>
+  <si>
     <t>fieldname</t>
   </si>
   <si>
@@ -149,9 +157,6 @@
     <t>Delete_module</t>
   </si>
   <si>
-    <t>rowName</t>
-  </si>
-  <si>
     <t>Checkbox_test</t>
   </si>
   <si>
@@ -200,22 +205,22 @@
     <t>checkbox</t>
   </si>
   <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>TCtesting</t>
+  </si>
+  <si>
+    <t>Default_value</t>
+  </si>
+  <si>
     <t>Require</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>TCtesting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Default_value</t>
   </si>
   <si>
     <t>TStesting</t>
@@ -301,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -317,6 +322,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3064AC33-34A6-42F2-A72D-5B5BD3163CBC}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -699,6 +707,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C8BD8C-0365-41A4-84AA-65BC87E61775}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AEB225-32E2-4129-B369-DB7F9A021F72}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -710,26 +749,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351C09AE-079B-4AD8-BA8C-D391AFA3DE3F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -742,12 +781,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -758,7 +797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07095CDC-F066-4E80-9469-1C370FB473D5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -801,7 +840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AEF6EF-BF71-432E-AEBB-D15416117325}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -813,57 +852,60 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350CE669-287D-4F3B-B2B8-E3B4A4BDEA5E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350CE669-287D-4F3B-B2B8-E3B4A4BDEA5E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C33A0-D143-485C-8B29-E895F95F53AD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -875,21 +917,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -900,7 +942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EE5814-EA7E-4F61-A906-F4ED82323ACA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -915,12 +957,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -931,7 +973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B153629-357E-4843-9AB4-B24934791446}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -946,12 +988,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -962,7 +1004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09493DB8-0AEA-4949-A4EA-DEBF53E6684B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -972,55 +1014,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A880DA7-F90D-4C57-BEFD-252AD89C9460}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1084,6 +1089,43 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A880DA7-F90D-4C57-BEFD-252AD89C9460}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC484A-D23C-4B4C-822F-24AC093A218D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1098,12 +1140,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1114,7 +1156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB17D23-16A1-4C8E-BA0A-5A6C08FCCEC1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1129,12 +1171,74 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5164EAA-AF7E-4E2B-B910-55F62B2B0BC9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7B950E-0F34-4C78-B729-253EFC2BD626}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1145,94 +1249,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5164EAA-AF7E-4E2B-B910-55F62B2B0BC9}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7B950E-0F34-4C78-B729-253EFC2BD626}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E952069D-C910-412A-B6B9-626AAF5F2CF8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6F7114-85F6-415E-8714-9A8A383691CB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1242,15 +1284,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1261,7 +1303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C952E0C-2D76-4AA4-B436-3075038EE613}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1273,10 +1315,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -1284,36 +1326,36 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5AF825-8F6A-4FB9-807F-5E09BFCA6B1A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1321,15 +1363,15 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD7613B-1FB7-4F02-BB03-838AB4A05DC0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1339,49 +1381,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E42CA-F5A8-4ECA-8A5D-B096FCA2CC9E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="33">
-      <c r="A2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1425,6 +1436,37 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E42CA-F5A8-4ECA-8A5D-B096FCA2CC9E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3BA1DA-AB51-4562-B5B3-586B2475A743}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1436,32 +1478,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56AF3F8-8001-45C1-9318-7D30915CB162}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1476,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1489,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14283762-F6AF-4183-85CA-9EF3485F337B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1501,7 +1543,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1514,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F700F5-7B72-422C-AA9F-894105A1B1DF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1526,20 +1568,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A383C8-56C7-4D74-9E3A-57999A584CB3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1549,15 +1591,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1568,7 +1610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A72C4D-C160-4567-BEAE-829D4B4A82E5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1580,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1593,7 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6871F42-245D-4E51-9031-0AEBDA4C1809}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1608,15 +1650,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1627,7 +1669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375B6CD-0F43-4CFB-BF0D-1B8EE2438F2B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1637,26 +1679,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E709C1-FDF3-4FC0-98A8-2C63F1380298}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1666,49 +1708,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69B10C3-05AF-4226-9D03-BDB40B945C00}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1782,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69B10C3-05AF-4226-9D03-BDB40B945C00}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E6DA5-94B8-42E9-9F97-D2311BAD0078}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="31.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC60741F-C6E8-47B6-8204-16D0A8D71746}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1777,15 +1847,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1796,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B493A02-5711-4BAA-B5BF-BC5306ECB4CB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1806,26 +1876,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EF52ED-BCC5-4BC3-BF75-B6C1F1207B2F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1837,10 +1907,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -1848,21 +1918,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD58C3ED-1354-4E83-B9C2-A9BD98EFA6D3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1874,43 +1944,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="33">
       <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C8BD8C-0365-41A4-84AA-65BC87E61775}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9ADBB-92DB-40AA-8A32-0A864CA80EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB78E35E-4F80-45FB-8E89-221420B3D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,17 @@
     <sheet name="tc010" sheetId="6" r:id="rId6"/>
     <sheet name="tc016" sheetId="7" r:id="rId7"/>
     <sheet name="tc058" sheetId="10" r:id="rId8"/>
-    <sheet name="tc029" sheetId="8" r:id="rId9"/>
-    <sheet name="tc054" sheetId="9" r:id="rId10"/>
+    <sheet name="tc036" sheetId="11" r:id="rId9"/>
+    <sheet name="tc022" sheetId="12" r:id="rId10"/>
+    <sheet name="tc029" sheetId="8" r:id="rId11"/>
+    <sheet name="tc054" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -137,19 +139,34 @@
   </si>
   <si>
     <t>Default_value</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,6 +576,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35853802-51D2-43B8-AC86-F7BF918C2B85}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -753,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7917CF99-EB7A-416D-887F-F0A0ADC51F8D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -815,33 +899,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEC28DB-5BAE-4A96-BC88-B3FD2322A22F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB78E35E-4F80-45FB-8E89-221420B3D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244703A7-E8DF-4428-81C4-6EDE5D2B2C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>customfield</t>
+  </si>
+  <si>
+    <t>Testing-Mohit</t>
+  </si>
+  <si>
+    <t>Tesdata</t>
+  </si>
+  <si>
+    <t>deletecustomfield</t>
   </si>
 </sst>
 </file>
@@ -835,13 +847,69 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7917CF99-EB7A-416D-887F-F0A0ADC51F8D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -853,40 +921,6 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7917CF99-EB7A-416D-887F-F0A0ADC51F8D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32FDB509-1876-45BF-8E1E-833B69CA6C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01F8165-731F-4609-BFAB-64151A8BE03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="26" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="3" r:id="rId1"/>
@@ -34,20 +34,21 @@
     <sheet name="tc035" sheetId="37" r:id="rId24"/>
     <sheet name="tc036" sheetId="19" r:id="rId25"/>
     <sheet name="tc039" sheetId="17" r:id="rId26"/>
-    <sheet name="tc041" sheetId="36" r:id="rId27"/>
-    <sheet name="tc042" sheetId="32" r:id="rId28"/>
-    <sheet name="tc045" sheetId="22" r:id="rId29"/>
-    <sheet name="tc046" sheetId="24" r:id="rId30"/>
-    <sheet name="tc047" sheetId="25" r:id="rId31"/>
-    <sheet name="tc048" sheetId="26" r:id="rId32"/>
-    <sheet name="tc049" sheetId="20" r:id="rId33"/>
-    <sheet name="tc050" sheetId="21" r:id="rId34"/>
-    <sheet name="tc051" sheetId="23" r:id="rId35"/>
-    <sheet name="tc054" sheetId="40" r:id="rId36"/>
-    <sheet name="tc057" sheetId="34" r:id="rId37"/>
-    <sheet name="tc058" sheetId="35" r:id="rId38"/>
-    <sheet name="tc059" sheetId="33" r:id="rId39"/>
-    <sheet name="tc060" sheetId="41" r:id="rId40"/>
+    <sheet name="tc040" sheetId="43" r:id="rId27"/>
+    <sheet name="tc041" sheetId="36" r:id="rId28"/>
+    <sheet name="tc042" sheetId="32" r:id="rId29"/>
+    <sheet name="tc045" sheetId="22" r:id="rId30"/>
+    <sheet name="tc046" sheetId="24" r:id="rId31"/>
+    <sheet name="tc047" sheetId="25" r:id="rId32"/>
+    <sheet name="tc048" sheetId="26" r:id="rId33"/>
+    <sheet name="tc049" sheetId="20" r:id="rId34"/>
+    <sheet name="tc050" sheetId="21" r:id="rId35"/>
+    <sheet name="tc051" sheetId="23" r:id="rId36"/>
+    <sheet name="tc054" sheetId="40" r:id="rId37"/>
+    <sheet name="tc057" sheetId="34" r:id="rId38"/>
+    <sheet name="tc058" sheetId="35" r:id="rId39"/>
+    <sheet name="tc059" sheetId="33" r:id="rId40"/>
+    <sheet name="tc060" sheetId="41" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
   <si>
     <t>fieldName</t>
   </si>
@@ -142,6 +143,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>def_value</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -160,9 +164,6 @@
     <t>Checkbox_test</t>
   </si>
   <si>
-    <t>def_value</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -172,7 +173,7 @@
     <t>test_user</t>
   </si>
   <si>
-    <t>Desciption</t>
+    <t>desc</t>
   </si>
   <si>
     <t>value</t>
@@ -266,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +285,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="8.1999999999999993"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -325,6 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3064AC33-34A6-42F2-A72D-5B5BD3163CBC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -673,6 +681,162 @@
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="29.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C8BD8C-0365-41A4-84AA-65BC87E61775}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AEB225-32E2-4129-B369-DB7F9A021F72}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351C09AE-079B-4AD8-BA8C-D391AFA3DE3F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07095CDC-F066-4E80-9469-1C370FB473D5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:4" ht="29.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
@@ -706,140 +870,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C8BD8C-0365-41A4-84AA-65BC87E61775}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AEB225-32E2-4129-B369-DB7F9A021F72}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351C09AE-079B-4AD8-BA8C-D391AFA3DE3F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07095CDC-F066-4E80-9469-1C370FB473D5}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="29.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="29.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AEF6EF-BF71-432E-AEBB-D15416117325}">
   <dimension ref="A1:B2"/>
@@ -889,7 +919,7 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -897,7 +927,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C33A0-D143-485C-8B29-E895F95F53AD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -978,7 +1008,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1093,17 +1123,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -1111,13 +1141,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1210,7 +1240,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1304,21 +1334,55 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AEC93D-7096-490E-B731-62C9C5927E15}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C952E0C-2D76-4AA4-B436-3075038EE613}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -1326,25 +1390,25 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5AF825-8F6A-4FB9-807F-5E09BFCA6B1A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1364,35 +1428,6 @@
       </c>
       <c r="C2" t="s">
         <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD7613B-1FB7-4F02-BB03-838AB4A05DC0}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1436,6 +1471,35 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD7613B-1FB7-4F02-BB03-838AB4A05DC0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E42CA-F5A8-4ECA-8A5D-B096FCA2CC9E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1466,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3BA1DA-AB51-4562-B5B3-586B2475A743}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1489,21 +1553,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56AF3F8-8001-45C1-9318-7D30915CB162}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1531,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14283762-F6AF-4183-85CA-9EF3485F337B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1556,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F700F5-7B72-422C-AA9F-894105A1B1DF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1581,7 +1645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A383C8-56C7-4D74-9E3A-57999A584CB3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1610,7 +1674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A72C4D-C160-4567-BEAE-829D4B4A82E5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1635,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6871F42-245D-4E51-9031-0AEBDA4C1809}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1669,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375B6CD-0F43-4CFB-BF0D-1B8EE2438F2B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1682,23 +1746,72 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F83F09-35A7-4382-9BD7-2BF527D4B551}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E709C1-FDF3-4FC0-98A8-2C63F1380298}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1733,56 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F83F09-35A7-4382-9BD7-2BF527D4B551}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69B10C3-05AF-4226-9D03-BDB40B945C00}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1799,7 +1863,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1811,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E6DA5-94B8-42E9-9F97-D2311BAD0078}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1879,15 +1943,15 @@
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
+      <c r="A2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1900,17 +1964,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection activeCell="B1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
@@ -1918,13 +1982,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +2001,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1949,7 +2013,7 @@
     </row>
     <row r="2" spans="1:1" ht="33">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\SettingTestCaseTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244703A7-E8DF-4428-81C4-6EDE5D2B2C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758C6041-EE56-48CE-A5D6-788D1B4A8191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,16 @@
     <sheet name="tc058" sheetId="10" r:id="rId8"/>
     <sheet name="tc036" sheetId="11" r:id="rId9"/>
     <sheet name="tc022" sheetId="12" r:id="rId10"/>
-    <sheet name="tc029" sheetId="8" r:id="rId11"/>
-    <sheet name="tc054" sheetId="9" r:id="rId12"/>
+    <sheet name="tc028" sheetId="13" r:id="rId11"/>
+    <sheet name="tc029" sheetId="8" r:id="rId12"/>
+    <sheet name="tc054" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>Fieldvalue</t>
   </si>
@@ -145,9 +146,6 @@
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>desc</t>
   </si>
   <si>
     <t>customfield</t>
@@ -589,36 +587,103 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35853802-51D2-43B8-AC86-F7BF918C2B85}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA09029-E50F-422A-B08E-D58E9E0AD469}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -653,7 +718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -849,22 +914,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
@@ -873,24 +939,24 @@
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -900,10 +966,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7917CF99-EB7A-416D-887F-F0A0ADC51F8D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,20 +977,38 @@
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="E2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{379C6191-0F5C-4A6D-B299-91CB5E147033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A6AAA81-B3CA-4317-A8DA-1D1B0F9806C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
   <si>
     <t>fieldName</t>
   </si>
@@ -1105,51 +1105,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7749554-C6ED-4943-A403-7241DA00E3A2}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="29.25">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
       <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.25">
+    <row r="2" spans="1:5" ht="29.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D8C036-2C75-47B5-9454-3CC22B196161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C81575-A069-4B5A-9889-0788CE26B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="3" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
   <si>
     <t>fieldName</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>TestUser</t>
-  </si>
-  <si>
-    <t>VivekTestUser</t>
   </si>
   <si>
     <t>checkbox</t>
@@ -1218,9 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB17D23-16A1-4C8E-BA0A-5A6C08FCCEC1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1250,7 +1245,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,7 +1263,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1283,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7B950E-0F34-4C78-B729-253EFC2BD626}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1322,7 +1317,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1345,15 +1340,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1390,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -1398,19 +1393,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -1475,10 +1470,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1531,15 +1526,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1616,13 +1611,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1656,12 +1651,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1676,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1706,12 +1701,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1729,15 +1724,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1760,12 +1755,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1783,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
@@ -1796,7 +1791,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1860,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F83F09-35A7-4382-9BD7-2BF527D4B551}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1915,24 +1910,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1947,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C81575-A069-4B5A-9889-0788CE26B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3C284C-E62C-44BB-B43A-46DA901B2725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testData/SettingTestCaseTestData/settingTab_testData.xlsx
+++ b/testData/SettingTestCaseTestData/settingTab_testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3C284C-E62C-44BB-B43A-46DA901B2725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8F90FA9-A5CC-4452-A390-DC40A6887EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
